--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019929.621311616</v>
+        <v>4017677.541600409</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.72759225321223</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403545</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.3285722275962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7098141956742</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>36.89863216765543</v>
+        <v>87.28121759428707</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>97.90411925715522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.41653174045969</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>125.8152577453148</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518784</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1557845699814</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763683</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522384</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>950.1045973369974</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450752</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.788655774829</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.996076631299</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1021.570547268603</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1203.219012098843</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4847,7 +4847,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925216</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168585</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>197.0043242297712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,37 +6686,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,34 +6835,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257537</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745236</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505558</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.70888054695402</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9259388694759281</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>63.36835372228747</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.018803864458</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943308</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.574418839027077e-11</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
-      </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551216</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231449</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179364</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478471</v>
+        <v>-705990.9834478477</v>
       </c>
       <c r="C6" t="n">
-        <v>622753.7622797448</v>
+        <v>622753.7622797453</v>
       </c>
       <c r="D6" t="n">
-        <v>622753.7622797447</v>
+        <v>622753.762279745</v>
       </c>
       <c r="E6" t="n">
-        <v>369444.5758069505</v>
+        <v>369409.8378815149</v>
       </c>
       <c r="F6" t="n">
-        <v>694857.0376143055</v>
+        <v>694822.2996888697</v>
       </c>
       <c r="G6" t="n">
-        <v>694857.0376143054</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="H6" t="n">
-        <v>694857.0376143053</v>
+        <v>694822.29968887</v>
       </c>
       <c r="I6" t="n">
-        <v>694857.0376143053</v>
+        <v>694822.29968887</v>
       </c>
       <c r="J6" t="n">
-        <v>477325.8352170282</v>
+        <v>477291.0972915925</v>
       </c>
       <c r="K6" t="n">
-        <v>694857.0376143056</v>
+        <v>694822.29968887</v>
       </c>
       <c r="L6" t="n">
-        <v>694857.0376143056</v>
+        <v>694822.2996888701</v>
       </c>
       <c r="M6" t="n">
-        <v>609802.0096787938</v>
+        <v>609767.2717533575</v>
       </c>
       <c r="N6" t="n">
-        <v>694857.0376143055</v>
+        <v>694822.2996888696</v>
       </c>
       <c r="O6" t="n">
-        <v>694857.0376143054</v>
+        <v>694822.2996888702</v>
       </c>
       <c r="P6" t="n">
-        <v>694857.0376143054</v>
+        <v>694822.2996888701</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973553</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.0062494102684</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319073</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.50340795434107</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.999841193362926</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>312.3423365497576</v>
+        <v>261.959751123126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>69.34270184147262</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.8214069155939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.604658557802081e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630671</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>345.123221785261</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394707</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394707</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.623361883193</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396436</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>211.1488143709308</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
